--- a/data/trans_dic/P57_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P57_R-Edad-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03992697462558574</v>
+        <v>0.03860193695569564</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01242503192047615</v>
+        <v>0.01372835397378692</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04798340413343304</v>
+        <v>0.04745390719188875</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04274688548965815</v>
+        <v>0.03985438231156046</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0482270309104009</v>
+        <v>0.04876588341029298</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03365904926136439</v>
+        <v>0.03461948326483481</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09133417323387918</v>
+        <v>0.08948009083327953</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06704788628277242</v>
+        <v>0.06865635523986179</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.09820475982358864</v>
+        <v>0.09800000727009618</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1234188018976441</v>
+        <v>0.1147613647841739</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.08334392431442331</v>
+        <v>0.08291638947882995</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.08098311976856261</v>
+        <v>0.08359462075101376</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1003502218956365</v>
+        <v>0.1034969227857879</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05597046798337142</v>
+        <v>0.05029002328420758</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08733245214846019</v>
+        <v>0.08579955672948558</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05079589375841964</v>
+        <v>0.04816173242556124</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.100812066094671</v>
+        <v>0.101888287530123</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05746778108303627</v>
+        <v>0.05823044331955632</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1573068353680847</v>
+        <v>0.1613928131780831</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1220317050586741</v>
+        <v>0.1198687572362769</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1386147759048918</v>
+        <v>0.1361491764232472</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09799639201678124</v>
+        <v>0.1004498096202438</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1396266326276832</v>
+        <v>0.1408233064151304</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0972201312053584</v>
+        <v>0.09956354961293937</v>
       </c>
     </row>
     <row r="10">
@@ -782,13 +782,13 @@
         <v>0.1387087095183519</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.07461822517513822</v>
+        <v>0.07461822517513823</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1413751257591418</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.07964199113599099</v>
+        <v>0.07964199113599098</v>
       </c>
     </row>
     <row r="11">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1189495544448829</v>
+        <v>0.1190073057398318</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0642152552675668</v>
+        <v>0.06184131568469077</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1150890646413142</v>
+        <v>0.1132769260954531</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0589930510467787</v>
+        <v>0.05933034649374187</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.123421312567132</v>
+        <v>0.1233723444956692</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0668945430794472</v>
+        <v>0.06667628040941501</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1744404439509383</v>
+        <v>0.1743922317700506</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1105223672707864</v>
+        <v>0.1111329957411164</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1668822190535034</v>
+        <v>0.1669608086932787</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.09486407248716459</v>
+        <v>0.09639172627688511</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1608332877024719</v>
+        <v>0.1625189850231261</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.0950739059345021</v>
+        <v>0.09573618520124072</v>
       </c>
     </row>
     <row r="13">
@@ -858,7 +858,7 @@
         <v>0.2185049395024909</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.1057993092594373</v>
+        <v>0.1057993092594372</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.2216811165329072</v>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1818620692517179</v>
+        <v>0.1875639639514975</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08461388110914814</v>
+        <v>0.08284672958002372</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1917385408922421</v>
+        <v>0.1892957181853284</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1358973204199262</v>
+        <v>0.1328796889601623</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1961120953235828</v>
+        <v>0.196693264048428</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1148519677453203</v>
+        <v>0.1156756007285128</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2512908716671945</v>
+        <v>0.2549975775557329</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1301681895681038</v>
+        <v>0.1325466206705892</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2581285543433468</v>
+        <v>0.2580589873398758</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1783890115245748</v>
+        <v>0.1775047609325498</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2449011605125388</v>
+        <v>0.2427978119406115</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1484092624258108</v>
+        <v>0.1483697551421285</v>
       </c>
     </row>
     <row r="16">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1567261842337787</v>
+        <v>0.1599351050773123</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1801482839869649</v>
+        <v>0.1772538228792621</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2905942217391284</v>
+        <v>0.2951607360600241</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2282152698232488</v>
+        <v>0.2282927262764189</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2349488402820122</v>
+        <v>0.2404749261450034</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2085485887207009</v>
+        <v>0.2106657083292715</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2343656667661126</v>
+        <v>0.233374628492037</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2375104956403193</v>
+        <v>0.2376696547725462</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3809321926896814</v>
+        <v>0.3825262317913022</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2820854967314335</v>
+        <v>0.2801129550387044</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2998197641580211</v>
+        <v>0.2993799330058257</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2521275956441487</v>
+        <v>0.2500042096934445</v>
       </c>
     </row>
     <row r="19">
@@ -1034,7 +1034,7 @@
         <v>0.3307100763747159</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.2172976229541486</v>
+        <v>0.2172976229541485</v>
       </c>
     </row>
     <row r="20">
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2255263363912659</v>
+        <v>0.2289763873498182</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1520893396283736</v>
+        <v>0.1536904833770694</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3325008133533755</v>
+        <v>0.3309320006972104</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2208389377005209</v>
+        <v>0.2216543679900007</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2950041857406991</v>
+        <v>0.297167947481316</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1980966401954746</v>
+        <v>0.1962501397904934</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3246625472422109</v>
+        <v>0.3310795068775191</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2161517145397539</v>
+        <v>0.2184104485975404</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4322396692584132</v>
+        <v>0.4306568618941472</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2801917093754004</v>
+        <v>0.2808559399254426</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3693569548139777</v>
+        <v>0.3659367073925697</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2389202953730767</v>
+        <v>0.2396313647477508</v>
       </c>
     </row>
     <row r="22">
@@ -1116,7 +1116,7 @@
         <v>0.4558047712677218</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.328537419290821</v>
+        <v>0.3285374192908211</v>
       </c>
     </row>
     <row r="23">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3502828519845197</v>
+        <v>0.3507109141999301</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2660821514622817</v>
+        <v>0.2650755229579138</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4338702600585331</v>
+        <v>0.4274204529544929</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3134678296378986</v>
+        <v>0.3128096509478966</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.4162453599318683</v>
+        <v>0.4155370607894189</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.303765882607823</v>
+        <v>0.3030610136967039</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4629264819012402</v>
+        <v>0.4626036163622643</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3497050629077653</v>
+        <v>0.3543961891420499</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5464331165881561</v>
+        <v>0.5440864261308982</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.380526172442386</v>
+        <v>0.376911849032468</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4956423523230276</v>
+        <v>0.4998076907332616</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3562334906654785</v>
+        <v>0.3584073683860816</v>
       </c>
     </row>
     <row r="25">
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1707073336214035</v>
+        <v>0.1729822099273633</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1231141641721879</v>
+        <v>0.1234753428602749</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.219710047699913</v>
+        <v>0.2207318029974446</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1630702137096631</v>
+        <v>0.1630313437769726</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2004534506469918</v>
+        <v>0.2001346877096224</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1466292581199869</v>
+        <v>0.1463926198690921</v>
       </c>
     </row>
     <row r="27">
@@ -1235,22 +1235,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1983752476282493</v>
+        <v>0.1994897947502547</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1452323958679781</v>
+        <v>0.1456134641083238</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.250206332246964</v>
+        <v>0.2493665405068524</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1842156193730836</v>
+        <v>0.1839276127373952</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2201378742600735</v>
+        <v>0.2205299945812986</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1616845678838601</v>
+        <v>0.1618231883948152</v>
       </c>
     </row>
     <row r="28">
@@ -1440,22 +1440,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>16748</v>
+        <v>16192</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5067</v>
+        <v>5598</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>18845</v>
+        <v>18637</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>15496</v>
+        <v>14448</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>39170</v>
+        <v>39608</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>25928</v>
+        <v>26668</v>
       </c>
     </row>
     <row r="7">
@@ -1466,22 +1466,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>38311</v>
+        <v>37534</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>27342</v>
+        <v>27998</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>38569</v>
+        <v>38489</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>44741</v>
+        <v>41602</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>67693</v>
+        <v>67345</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>62382</v>
+        <v>64393</v>
       </c>
     </row>
     <row r="8">
@@ -1548,22 +1548,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>58801</v>
+        <v>60645</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>26692</v>
+        <v>23983</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>48827</v>
+        <v>47970</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>25403</v>
+        <v>24085</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>115434</v>
+        <v>116666</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>56145</v>
+        <v>56890</v>
       </c>
     </row>
     <row r="11">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>92175</v>
+        <v>94569</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>58196</v>
+        <v>57164</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>77498</v>
+        <v>76119</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>49007</v>
+        <v>50234</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>159878</v>
+        <v>161249</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>94982</v>
+        <v>97272</v>
       </c>
     </row>
     <row r="12">
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>79254</v>
+        <v>79293</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>39867</v>
+        <v>38393</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>76011</v>
+        <v>74814</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>36654</v>
+        <v>36864</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>163747</v>
+        <v>163683</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>83094</v>
+        <v>82823</v>
       </c>
     </row>
     <row r="15">
@@ -1682,22 +1682,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>116227</v>
+        <v>116195</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>68616</v>
+        <v>68995</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>110218</v>
+        <v>110270</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>58942</v>
+        <v>59891</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>213383</v>
+        <v>215620</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>118097</v>
+        <v>118920</v>
       </c>
     </row>
     <row r="16">
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>116901</v>
+        <v>120566</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>59282</v>
+        <v>58044</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>123818</v>
+        <v>122241</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>99393</v>
+        <v>97186</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>252703</v>
+        <v>253452</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>164468</v>
+        <v>165647</v>
       </c>
     </row>
     <row r="19">
@@ -1790,22 +1790,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>161530</v>
+        <v>163912</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>91198</v>
+        <v>92864</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>166691</v>
+        <v>166646</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>130471</v>
+        <v>129824</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>315571</v>
+        <v>312861</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>212522</v>
+        <v>212465</v>
       </c>
     </row>
     <row r="20">
@@ -1872,22 +1872,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>74736</v>
+        <v>76266</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>109021</v>
+        <v>107269</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>144077</v>
+        <v>146342</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>138242</v>
+        <v>138289</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>228525</v>
+        <v>233900</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>252536</v>
+        <v>255100</v>
       </c>
     </row>
     <row r="23">
@@ -1898,22 +1898,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>111758</v>
+        <v>111286</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>143734</v>
+        <v>143831</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>188867</v>
+        <v>189658</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>170874</v>
+        <v>169679</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>291622</v>
+        <v>291194</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>305307</v>
+        <v>302736</v>
       </c>
     </row>
     <row r="24">
@@ -1980,22 +1980,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>74960</v>
+        <v>76107</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>61574</v>
+        <v>62222</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>125606</v>
+        <v>125014</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>96745</v>
+        <v>97102</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>209494</v>
+        <v>211031</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>166982</v>
+        <v>165425</v>
       </c>
     </row>
     <row r="27">
@@ -2006,22 +2006,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>107911</v>
+        <v>110044</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>87510</v>
+        <v>88424</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>163284</v>
+        <v>162686</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>122746</v>
+        <v>123037</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>262295</v>
+        <v>259866</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>201393</v>
+        <v>201993</v>
       </c>
     </row>
     <row r="28">
@@ -2088,22 +2088,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>90022</v>
+        <v>90132</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>81323</v>
+        <v>81015</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>172024</v>
+        <v>169467</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>142181</v>
+        <v>141882</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>272011</v>
+        <v>271548</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>230621</v>
+        <v>230085</v>
       </c>
     </row>
     <row r="31">
@@ -2114,22 +2114,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>118971</v>
+        <v>118888</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>106881</v>
+        <v>108314</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>216654</v>
+        <v>215724</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>172597</v>
+        <v>170957</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>323895</v>
+        <v>326617</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>270454</v>
+        <v>272105</v>
       </c>
     </row>
     <row r="32">
@@ -2196,22 +2196,22 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>577116</v>
+        <v>584807</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>433583</v>
+        <v>434855</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>775160</v>
+        <v>778765</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>605434</v>
+        <v>605289</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>1384900</v>
+        <v>1382698</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>1060791</v>
+        <v>1059079</v>
       </c>
     </row>
     <row r="35">
@@ -2222,22 +2222,22 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>670654</v>
+        <v>674422</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>511478</v>
+        <v>512820</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>882754</v>
+        <v>879791</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>683941</v>
+        <v>682871</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>1520897</v>
+        <v>1523606</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>1169709</v>
+        <v>1170712</v>
       </c>
     </row>
     <row r="36">
